--- a/1_BITACORA_OBSTACULOS_DUDAS_SOLUCIONES.xlsx
+++ b/1_BITACORA_OBSTACULOS_DUDAS_SOLUCIONES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b8c9c919d388077/Documentos/SENA/Ins Henry/Repositorio Htlm/Ejercicios_html5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JnsArs\Desktop\Ejercicios_html5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_241CD781EA7F5407D6F2A8639C5C22D10F78C07D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C503FEFB-72A3-4709-A42B-1E26FA19A7E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>RETROALIMENTACIÓN PRÁCTICAS PHP (NIVELACIÓN)</t>
   </si>
@@ -92,11 +91,23 @@
   <si>
     <t>Porque mi equipo rechazo el programa git si mi equipo esta nuevo?</t>
   </si>
+  <si>
+    <t>5.Problemas con el repositorio</t>
+  </si>
+  <si>
+    <t>el repositorio no me permitia subir archivos</t>
+  </si>
+  <si>
+    <t>se creo uno nuevo y se subio todo de nuevo</t>
+  </si>
+  <si>
+    <t>por que el repositorio se bloquea?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,11 +441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,12 +727,20 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
